--- a/src/test/resources/testdata/Suite.xlsx
+++ b/src/test/resources/testdata/Suite.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\seleniumworkspaces\LiveProjects\TestDataProject\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sami/IdeaProjects/DataDrivenGrid/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5370"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17200" windowHeight="7480"/>
   </bookViews>
   <sheets>
     <sheet name="Suite" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -362,12 +365,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,7 +378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -383,7 +386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>

--- a/src/test/resources/testdata/Suite.xlsx
+++ b/src/test/resources/testdata/Suite.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Suite" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>SuiteName</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -391,7 +394,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
